--- a/data/pca/factorExposure/factorExposure_2013-06-07.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-06-07.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.001869622479010445</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.001684646001382901</v>
+      </c>
+      <c r="C2">
+        <v>0.03149885537299489</v>
+      </c>
+      <c r="D2">
+        <v>0.005341319996140938</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.001525738058692233</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.005927333205327362</v>
+      </c>
+      <c r="C4">
+        <v>0.08397814806930584</v>
+      </c>
+      <c r="D4">
+        <v>0.08138205256022991</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>-0.0004733531325225105</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.0128942474426276</v>
+      </c>
+      <c r="C6">
+        <v>0.1072792771979939</v>
+      </c>
+      <c r="D6">
+        <v>0.03542786918433539</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.001811202455067105</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.004875920646168756</v>
+      </c>
+      <c r="C7">
+        <v>0.05074865923291735</v>
+      </c>
+      <c r="D7">
+        <v>0.03870861652078973</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.002206346670662058</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.005655267934626676</v>
+      </c>
+      <c r="C8">
+        <v>0.03687227228559059</v>
+      </c>
+      <c r="D8">
+        <v>0.04129946105263861</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.005310655824595216</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.00392350519837224</v>
+      </c>
+      <c r="C9">
+        <v>0.06863565823489917</v>
+      </c>
+      <c r="D9">
+        <v>0.07054214990636862</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.005837018684260096</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.005703120868704859</v>
+      </c>
+      <c r="C10">
+        <v>0.0767497703087376</v>
+      </c>
+      <c r="D10">
+        <v>-0.2103379034090321</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.005296440984403198</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.004923638885220727</v>
+      </c>
+      <c r="C11">
+        <v>0.07808047085096038</v>
+      </c>
+      <c r="D11">
+        <v>0.06612426745557348</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-0.0009194716513341593</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.003696016410869583</v>
+      </c>
+      <c r="C12">
+        <v>0.06282095916999622</v>
+      </c>
+      <c r="D12">
+        <v>0.04746249694600028</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.00384608880022369</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.008482198103010041</v>
+      </c>
+      <c r="C13">
+        <v>0.06876805660459297</v>
+      </c>
+      <c r="D13">
+        <v>0.07139528559785917</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.003662204869610185</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.001554802794401598</v>
+      </c>
+      <c r="C14">
+        <v>0.04572199729001657</v>
+      </c>
+      <c r="D14">
+        <v>0.01430613683067992</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.003201781403278567</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.005516732928366897</v>
+      </c>
+      <c r="C15">
+        <v>0.0375677045104676</v>
+      </c>
+      <c r="D15">
+        <v>0.04088438314608247</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.002880704181979333</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.004735239105341093</v>
+      </c>
+      <c r="C16">
+        <v>0.06429940310819242</v>
+      </c>
+      <c r="D16">
+        <v>0.0510690651610175</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>-0.0009044553477153835</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.00888295456870257</v>
+      </c>
+      <c r="C20">
+        <v>0.06441554452415221</v>
+      </c>
+      <c r="D20">
+        <v>0.05772848354817788</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.00461278679929434</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.009681592422900905</v>
+      </c>
+      <c r="C21">
+        <v>0.02321941439487246</v>
+      </c>
+      <c r="D21">
+        <v>0.03684675861806474</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01614910607873272</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.007119856049891732</v>
+      </c>
+      <c r="C22">
+        <v>0.08919113582818895</v>
+      </c>
+      <c r="D22">
+        <v>0.1024538220898304</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01640161226889549</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.006917469963898856</v>
+      </c>
+      <c r="C23">
+        <v>0.09027639138414004</v>
+      </c>
+      <c r="D23">
+        <v>0.1030178241899187</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.003917058278203054</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.004431227495425171</v>
+      </c>
+      <c r="C24">
+        <v>0.07233044391744657</v>
+      </c>
+      <c r="D24">
+        <v>0.06036462391405156</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.0056026124456549</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.002576755917488855</v>
+      </c>
+      <c r="C25">
+        <v>0.07655075691101218</v>
+      </c>
+      <c r="D25">
+        <v>0.06518743871984058</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.006203805301861974</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.003433659790708552</v>
+      </c>
+      <c r="C26">
+        <v>0.04074946766443865</v>
+      </c>
+      <c r="D26">
+        <v>0.02813838951394145</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.004676806487576009</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.0003703752096554343</v>
+      </c>
+      <c r="C28">
+        <v>0.1285703807890521</v>
+      </c>
+      <c r="D28">
+        <v>-0.3087380862951116</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.001781054563422154</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.00319112865423241</v>
+      </c>
+      <c r="C29">
+        <v>0.04766787743765862</v>
+      </c>
+      <c r="D29">
+        <v>0.01731013607991014</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.005364979383096911</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.008708465420416037</v>
+      </c>
+      <c r="C30">
+        <v>0.1372039575499017</v>
+      </c>
+      <c r="D30">
+        <v>0.1088465608510147</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>-0.0002779555139411931</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.006007094472417962</v>
+      </c>
+      <c r="C31">
+        <v>0.04491916655290037</v>
+      </c>
+      <c r="D31">
+        <v>0.03629365528644263</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>-0.001980211128950835</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.003836811571027029</v>
+      </c>
+      <c r="C32">
+        <v>0.03959725755360999</v>
+      </c>
+      <c r="D32">
+        <v>0.01483155440169011</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.00298435965887543</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.007553459489264038</v>
+      </c>
+      <c r="C33">
+        <v>0.0813115001965266</v>
+      </c>
+      <c r="D33">
+        <v>0.07681691264814199</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.005324032343102265</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.003481400705839112</v>
+      </c>
+      <c r="C34">
+        <v>0.05613086969025904</v>
+      </c>
+      <c r="D34">
+        <v>0.04549091971158995</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>-0.004093443408094472</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.004794316205947422</v>
+      </c>
+      <c r="C35">
+        <v>0.03819641939534429</v>
+      </c>
+      <c r="D35">
+        <v>0.01330268715893275</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.004613253093772917</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.001526690506412927</v>
+      </c>
+      <c r="C36">
+        <v>0.02324152829261261</v>
+      </c>
+      <c r="D36">
+        <v>0.02407281376641796</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.002543947511402815</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.009446217227739659</v>
+      </c>
+      <c r="C38">
+        <v>0.03404215862438516</v>
+      </c>
+      <c r="D38">
+        <v>0.03076975168261041</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01361675329472718</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.001198999140111818</v>
+      </c>
+      <c r="C39">
+        <v>0.1146342556711584</v>
+      </c>
+      <c r="D39">
+        <v>0.08282675647742761</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.007926344943302749</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.002092568285068853</v>
+      </c>
+      <c r="C40">
+        <v>0.0849628526352133</v>
+      </c>
+      <c r="D40">
+        <v>0.02811641747910535</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>7.500630634976646e-05</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.007268505829656742</v>
+      </c>
+      <c r="C41">
+        <v>0.03863764040670375</v>
+      </c>
+      <c r="D41">
+        <v>0.03841661578446837</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.002826850511523775</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.003000901553377484</v>
+      </c>
+      <c r="C43">
+        <v>0.05029793079484972</v>
+      </c>
+      <c r="D43">
+        <v>0.03036022544675319</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.005079158004355993</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.00336011676361352</v>
+      </c>
+      <c r="C44">
+        <v>0.1067062976090334</v>
+      </c>
+      <c r="D44">
+        <v>0.08424028384036387</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.002537408498299056</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.002332959592004053</v>
+      </c>
+      <c r="C46">
+        <v>0.03431160993549637</v>
+      </c>
+      <c r="D46">
+        <v>0.03440641158440749</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-0.001358217423556396</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.002831367417010384</v>
+      </c>
+      <c r="C47">
+        <v>0.03828370758049367</v>
+      </c>
+      <c r="D47">
+        <v>0.02965210184869213</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.003840938784036317</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.006422188281869179</v>
+      </c>
+      <c r="C48">
+        <v>0.02934445325064191</v>
+      </c>
+      <c r="D48">
+        <v>0.03154912321463166</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.0147588667011081</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.01362902610886295</v>
+      </c>
+      <c r="C49">
+        <v>0.1709893000086562</v>
+      </c>
+      <c r="D49">
+        <v>0.03461318417317281</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.0005152331668250851</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.003523481238955512</v>
+      </c>
+      <c r="C50">
+        <v>0.04092566043575737</v>
+      </c>
+      <c r="D50">
+        <v>0.0407002802773417</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.001184284097248556</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.003994253835703153</v>
+      </c>
+      <c r="C51">
+        <v>0.019064132413596</v>
+      </c>
+      <c r="D51">
+        <v>0.03257733209592283</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.001352064227824164</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.02007632018844657</v>
+      </c>
+      <c r="C53">
+        <v>0.1650417740220992</v>
+      </c>
+      <c r="D53">
+        <v>0.05360121145238556</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>-0.0006096444381787984</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.008276284420072806</v>
+      </c>
+      <c r="C54">
+        <v>0.05599562929762569</v>
+      </c>
+      <c r="D54">
+        <v>0.04137758518722676</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.004503440655766792</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.009259493584145559</v>
+      </c>
+      <c r="C55">
+        <v>0.1048681627925015</v>
+      </c>
+      <c r="D55">
+        <v>0.05443562848351972</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.002958679540616909</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.01935828341071839</v>
+      </c>
+      <c r="C56">
+        <v>0.1720336357898033</v>
+      </c>
+      <c r="D56">
+        <v>0.05104525891411357</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.008173816131319732</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.01917328057548028</v>
+      </c>
+      <c r="C58">
+        <v>0.09953635637279624</v>
+      </c>
+      <c r="D58">
+        <v>0.07963986047339196</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.006970761686925927</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.009181913648306148</v>
+      </c>
+      <c r="C59">
+        <v>0.1699386634285987</v>
+      </c>
+      <c r="D59">
+        <v>-0.2746706586214811</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.006409030696776002</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.02308495943594896</v>
+      </c>
+      <c r="C60">
+        <v>0.2216005501850379</v>
+      </c>
+      <c r="D60">
+        <v>0.02760453645199</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01574175815816007</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.002252358248922661</v>
+      </c>
+      <c r="C61">
+        <v>0.09455085871217184</v>
+      </c>
+      <c r="D61">
+        <v>0.0617975622513389</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1840694490721004</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.1434785808441958</v>
+      </c>
+      <c r="C62">
+        <v>0.07474247265427328</v>
+      </c>
+      <c r="D62">
+        <v>0.05260332242458612</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.002340414289821254</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.006430896422804882</v>
+      </c>
+      <c r="C63">
+        <v>0.05938790852710746</v>
+      </c>
+      <c r="D63">
+        <v>0.02609260514698871</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>-0.00782562756888937</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.0144664864850911</v>
+      </c>
+      <c r="C64">
+        <v>0.1007381085612414</v>
+      </c>
+      <c r="D64">
+        <v>0.06767754069789594</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.0002303273354934712</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.01670988708703057</v>
+      </c>
+      <c r="C65">
+        <v>0.1129100812569986</v>
+      </c>
+      <c r="D65">
+        <v>0.03094289487295273</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.009991537889520541</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.01177605898241116</v>
+      </c>
+      <c r="C66">
+        <v>0.1531648277779631</v>
+      </c>
+      <c r="D66">
+        <v>0.1194044929475472</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.002561468260924839</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.0154835617125068</v>
+      </c>
+      <c r="C67">
+        <v>0.06314706528001343</v>
+      </c>
+      <c r="D67">
+        <v>0.04124171782849833</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.007537700877857901</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.001491460043267989</v>
+      </c>
+      <c r="C68">
+        <v>0.1125532059777505</v>
+      </c>
+      <c r="D68">
+        <v>-0.2623913043173578</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.003496795663157417</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.005666165443858225</v>
+      </c>
+      <c r="C69">
+        <v>0.04496337395211445</v>
+      </c>
+      <c r="D69">
+        <v>0.04502407975798912</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.001677093844250757</v>
+      </c>
+      <c r="C70">
+        <v>0.001962871516861213</v>
+      </c>
+      <c r="D70">
+        <v>0.002608688757171476</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.002999221695890689</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.006246942114227803</v>
+      </c>
+      <c r="C71">
+        <v>0.114316477254265</v>
+      </c>
+      <c r="D71">
+        <v>-0.2818720730169217</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.008671324100793966</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.01495283059586624</v>
+      </c>
+      <c r="C72">
+        <v>0.1502663356421421</v>
+      </c>
+      <c r="D72">
+        <v>0.0275909580426575</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.0135446754742472</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.02966978084554752</v>
+      </c>
+      <c r="C73">
+        <v>0.2827010021149614</v>
+      </c>
+      <c r="D73">
+        <v>0.0529090534400109</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.004310034841308076</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.001629618367523624</v>
+      </c>
+      <c r="C74">
+        <v>0.1029892221614741</v>
+      </c>
+      <c r="D74">
+        <v>0.04320078989217817</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.007023530430631014</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.01048547503858813</v>
+      </c>
+      <c r="C75">
+        <v>0.1310904602803323</v>
+      </c>
+      <c r="D75">
+        <v>0.04141019894690696</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.01176036369855465</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.02103925878887463</v>
+      </c>
+      <c r="C76">
+        <v>0.1443399662949839</v>
+      </c>
+      <c r="D76">
+        <v>0.07357710926930199</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.00335384252195919</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.02332189275095192</v>
+      </c>
+      <c r="C77">
+        <v>0.1307090878606274</v>
+      </c>
+      <c r="D77">
+        <v>0.0604469921359306</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.0008781442433731195</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.01383309517975087</v>
+      </c>
+      <c r="C78">
+        <v>0.09085471538427217</v>
+      </c>
+      <c r="D78">
+        <v>0.06735506731583012</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02778286703970105</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.03662813299150048</v>
+      </c>
+      <c r="C79">
+        <v>0.1563776841225714</v>
+      </c>
+      <c r="D79">
+        <v>0.03682796325208659</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.00535557422588127</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.01051915728747327</v>
+      </c>
+      <c r="C80">
+        <v>0.04128236826164952</v>
+      </c>
+      <c r="D80">
+        <v>0.03487526353534175</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>2.41622997342275e-05</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.0144524358256382</v>
+      </c>
+      <c r="C81">
+        <v>0.1196248604617576</v>
+      </c>
+      <c r="D81">
+        <v>0.05852268869516125</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.006563841147923295</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.0194821721042515</v>
+      </c>
+      <c r="C82">
+        <v>0.1417345005854367</v>
+      </c>
+      <c r="D82">
+        <v>0.04800151875166773</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.006549904439411515</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.009717341836993078</v>
+      </c>
+      <c r="C83">
+        <v>0.05611124641319107</v>
+      </c>
+      <c r="D83">
+        <v>0.04979955563799617</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.01332498184399354</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.01161800577249497</v>
+      </c>
+      <c r="C84">
+        <v>0.02987445649237814</v>
+      </c>
+      <c r="D84">
+        <v>0.0006041020537844461</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01643680001193277</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.02778240182897816</v>
+      </c>
+      <c r="C85">
+        <v>0.1276555951624846</v>
+      </c>
+      <c r="D85">
+        <v>0.054266682785679</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.003458329748054685</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.005277132710853743</v>
+      </c>
+      <c r="C86">
+        <v>0.04744456258103227</v>
+      </c>
+      <c r="D86">
+        <v>0.02440045037592791</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.007570103472191054</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.009560459730616658</v>
+      </c>
+      <c r="C87">
+        <v>0.1263713939696691</v>
+      </c>
+      <c r="D87">
+        <v>0.08072168809766339</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.01418864106694093</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.003067819817927828</v>
+      </c>
+      <c r="C88">
+        <v>0.06920597135066596</v>
+      </c>
+      <c r="D88">
+        <v>0.0207399429279769</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01459388515728167</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.001106875204880844</v>
+      </c>
+      <c r="C89">
+        <v>0.1652944468558501</v>
+      </c>
+      <c r="D89">
+        <v>-0.3434898387036534</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.002583601882506971</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.007335721183824141</v>
+      </c>
+      <c r="C90">
+        <v>0.1453282767505736</v>
+      </c>
+      <c r="D90">
+        <v>-0.3168878379572504</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.002135959481522841</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.01008843552766658</v>
+      </c>
+      <c r="C91">
+        <v>0.1027166652854289</v>
+      </c>
+      <c r="D91">
+        <v>0.02371500725341062</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.01410367206635489</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.000397320276355257</v>
+      </c>
+      <c r="C92">
+        <v>0.1543779847317602</v>
+      </c>
+      <c r="D92">
+        <v>-0.3272610421130381</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.001507533575146064</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.005253947387742997</v>
+      </c>
+      <c r="C93">
+        <v>0.1265246774077362</v>
+      </c>
+      <c r="D93">
+        <v>-0.3082067702440188</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.003066634646360478</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.0218806220355329</v>
+      </c>
+      <c r="C94">
+        <v>0.1576393186644089</v>
+      </c>
+      <c r="D94">
+        <v>0.03625215721795353</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.005541420357009805</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.01591123400336643</v>
+      </c>
+      <c r="C95">
+        <v>0.1224709267004911</v>
+      </c>
+      <c r="D95">
+        <v>0.06999498988720429</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>-0.004125374110099937</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.03480681190279557</v>
+      </c>
+      <c r="C97">
+        <v>0.1749901615623838</v>
+      </c>
+      <c r="D97">
+        <v>0.04260750926783149</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>-0.006054283095592764</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.03552261446240666</v>
+      </c>
+      <c r="C98">
+        <v>0.2582499869550133</v>
+      </c>
+      <c r="D98">
+        <v>0.04359106763404741</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9804970174867572</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.9828994657485106</v>
+      </c>
+      <c r="C99">
+        <v>-0.1077093263237651</v>
+      </c>
+      <c r="D99">
+        <v>-0.03274599445039956</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.00172792250433161</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.003241902869739719</v>
+      </c>
+      <c r="C101">
+        <v>0.04781589098746927</v>
+      </c>
+      <c r="D101">
+        <v>0.01762215032099324</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
